--- a/outputs/regressions/A2_upper_high_simple_tables.xlsx
+++ b/outputs/regressions/A2_upper_high_simple_tables.xlsx
@@ -2573,7 +2573,7 @@
         <v>1.812755675836403</v>
       </c>
       <c r="C3">
-        <v>0.4179999999999999</v>
+        <v>0.4299999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
